--- a/bot_data.xlsx
+++ b/bot_data.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -439,12 +439,92 @@
         <v>Polivalente</v>
       </c>
       <c r="F2" t="str">
-        <v>opa</v>
+        <v>Não consigo acessar minha conta</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>23/12/2024</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Thalles Gabriel</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Aluno</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Cajazeiras</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Polivalente</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Não consigo acessar minha conta</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>23/12/2024</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Thalles Gabriel</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Aluno</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Cajazeiras</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Polivalente</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Não consigo acessar minha conta</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>23/12/2024</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Thalles Gabriel</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Aluno</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Cajazeiras</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Polivalente</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Não consigo acessar minha conta</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>23/12/2024</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Thalles Gabriel</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Aluno</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Cajazeiras</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Polivalente</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Não consigo acessar minha conta</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/bot_data.xlsx
+++ b/bot_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -439,7 +439,7 @@
         <v>Polivalente</v>
       </c>
       <c r="F2" t="str">
-        <v>Não consigo acessar minha conta</v>
+        <v>opa</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         <v>Polivalente</v>
       </c>
       <c r="F3" t="str">
-        <v>Não consigo acessar minha conta</v>
+        <v>AKAKAKAKAKAKAKAKAKA</v>
       </c>
     </row>
     <row r="4">
@@ -479,12 +479,12 @@
         <v>Polivalente</v>
       </c>
       <c r="F4" t="str">
-        <v>Não consigo acessar minha conta</v>
+        <v>OQQOQOAOAOA</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>23/12/2024</v>
+        <v>24/12/2024</v>
       </c>
       <c r="B5" t="str">
         <v>Thalles Gabriel</v>
@@ -499,32 +499,12 @@
         <v>Polivalente</v>
       </c>
       <c r="F5" t="str">
-        <v>Não consigo acessar minha conta</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>23/12/2024</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Thalles Gabriel</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Aluno</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Cajazeiras</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Polivalente</v>
-      </c>
-      <c r="F6" t="str">
         <v>Não consigo acessar minha conta</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>